--- a/device_info/inventory.xlsx
+++ b/device_info/inventory.xlsx
@@ -1,31 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\ping_script\device_info\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44486E9F-B33A-4446-9005-75A189D25BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="1" r:id="rId1"/>
+    <sheet name="updated 2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>IOS Version</t>
+  </si>
+  <si>
+    <t>Running Image</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Uptime</t>
+  </si>
+  <si>
+    <t>SW2-IOSv</t>
+  </si>
+  <si>
+    <t>192.168.23.142</t>
+  </si>
+  <si>
+    <t>97936F3T6X4</t>
+  </si>
+  <si>
+    <t>/vios_l2-adventerprisek9-m</t>
+  </si>
+  <si>
+    <t>IOSv</t>
+  </si>
+  <si>
+    <t>49 minutes</t>
+  </si>
+  <si>
+    <t>SW3-IOSv</t>
+  </si>
+  <si>
+    <t>192.168.23.143</t>
+  </si>
+  <si>
+    <t>9KX8MBRSI1M</t>
+  </si>
+  <si>
+    <t>SW1-IOSv</t>
+  </si>
+  <si>
+    <t>192.168.23.144</t>
+  </si>
+  <si>
+    <t>93XQW23T3YT</t>
+  </si>
+  <si>
+    <t>R1-CSR1000v</t>
+  </si>
+  <si>
+    <t>192.168.23.145</t>
+  </si>
+  <si>
+    <t>9O840KC3ZG2</t>
+  </si>
+  <si>
+    <t>17.3.1a</t>
+  </si>
+  <si>
+    <t>packages.conf</t>
+  </si>
+  <si>
+    <t>CSR1000V</t>
+  </si>
+  <si>
+    <t>R2-CSR1000v</t>
+  </si>
+  <si>
+    <t>192.168.23.146</t>
+  </si>
+  <si>
+    <t>9QDGE4BZMCJ</t>
+  </si>
+  <si>
+    <t>R3-CSR1000v</t>
+  </si>
+  <si>
+    <t>192.168.23.147</t>
+  </si>
+  <si>
+    <t>9U5T8NH43A7</t>
+  </si>
+  <si>
+    <t>39 minutes</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -125,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -157,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,28 +449,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="1" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/device_info/inventory.xlsx
+++ b/device_info/inventory.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="updated 2" sheetId="1" r:id="rId1"/>
+    <sheet name="updated 2021-03-03" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -52,7 +52,7 @@
     <t>IOSv</t>
   </si>
   <si>
-    <t>49 minutes</t>
+    <t>1 hour, 10 minutes</t>
   </si>
   <si>
     <t>SW3-IOSv</t>
@@ -109,7 +109,7 @@
     <t>9U5T8NH43A7</t>
   </si>
   <si>
-    <t>39 minutes</t>
+    <t>1 hour, 0 minutes</t>
   </si>
 </sst>
 </file>
